--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W20_H100_B16.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5495495495495496</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5283687943262412</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8142076502732241</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5495495495495496</v>
+        <v>0.4984984984984985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.6408602150537634</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5435435435435435</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1545688324314443</v>
+        <v>0.1066274556370071</v>
       </c>
       <c r="J2" t="n">
-        <v>2072.687603663797</v>
+        <v>1448.606446958557</v>
       </c>
       <c r="K2" t="n">
-        <v>6194109.87710842</v>
+        <v>3225643.240543702</v>
       </c>
       <c r="L2" t="n">
-        <v>2488.796873412618</v>
+        <v>1796.007583654284</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1516576668336913</v>
+        <v>0.4002630172623587</v>
       </c>
     </row>
   </sheetData>
